--- a/TestFramework/src/test/resources/TestData.xlsx
+++ b/TestFramework/src/test/resources/TestData.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/premsanil/Downloads/TestFramework/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/premsanil/git/AMS/TestFramework/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E36C78F-C93C-2944-BC0B-A58D1A4981F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD772114-A71D-AE4F-8D85-89834D94598D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16060" activeTab="1" xr2:uid="{05DF50FA-CBB6-C140-9382-A694CFC3DB6B}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16060" activeTab="2" xr2:uid="{05DF50FA-CBB6-C140-9382-A694CFC3DB6B}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData1" sheetId="1" r:id="rId1"/>
     <sheet name="TestData2" sheetId="2" r:id="rId2"/>
-    <sheet name="TestData3" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="GenerateRead" sheetId="5" r:id="rId3"/>
+    <sheet name="TestData3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="156">
   <si>
     <t>UD</t>
   </si>
@@ -396,13 +397,118 @@
   </si>
   <si>
     <t>30102022</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>pcpu_inmemory</t>
+  </si>
+  <si>
+    <t>44989</t>
+  </si>
+  <si>
+    <t>pmem_inmemory</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>6.8</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>6.9</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>2.3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -428,6 +534,14 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -449,12 +563,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1257,7 +1372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABDB96C-B5E6-6345-9A62-DFA42A2DE07B}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -1614,6 +1729,3473 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686088D2-F84B-9E46-9E57-2BDDD6B49202}">
+  <dimension ref="A1:B431"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>123</v>
+      </c>
+      <c r="B46" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>123</v>
+      </c>
+      <c r="B48" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>125</v>
+      </c>
+      <c r="B49" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>125</v>
+      </c>
+      <c r="B53" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>123</v>
+      </c>
+      <c r="B66" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>125</v>
+      </c>
+      <c r="B67" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>123</v>
+      </c>
+      <c r="B68" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>125</v>
+      </c>
+      <c r="B69" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>123</v>
+      </c>
+      <c r="B70" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>125</v>
+      </c>
+      <c r="B71" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>123</v>
+      </c>
+      <c r="B72" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>123</v>
+      </c>
+      <c r="B74" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>125</v>
+      </c>
+      <c r="B75" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>123</v>
+      </c>
+      <c r="B78" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>125</v>
+      </c>
+      <c r="B79" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>123</v>
+      </c>
+      <c r="B80" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>125</v>
+      </c>
+      <c r="B81" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>123</v>
+      </c>
+      <c r="B82" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>125</v>
+      </c>
+      <c r="B83" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>123</v>
+      </c>
+      <c r="B84" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>125</v>
+      </c>
+      <c r="B85" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>123</v>
+      </c>
+      <c r="B86" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>125</v>
+      </c>
+      <c r="B87" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>123</v>
+      </c>
+      <c r="B88" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>125</v>
+      </c>
+      <c r="B89" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>123</v>
+      </c>
+      <c r="B90" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>125</v>
+      </c>
+      <c r="B91" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>123</v>
+      </c>
+      <c r="B92" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>125</v>
+      </c>
+      <c r="B93" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>123</v>
+      </c>
+      <c r="B94" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>125</v>
+      </c>
+      <c r="B95" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>123</v>
+      </c>
+      <c r="B96" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>125</v>
+      </c>
+      <c r="B97" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>123</v>
+      </c>
+      <c r="B98" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>125</v>
+      </c>
+      <c r="B99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>123</v>
+      </c>
+      <c r="B100" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>125</v>
+      </c>
+      <c r="B101" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>123</v>
+      </c>
+      <c r="B102" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>125</v>
+      </c>
+      <c r="B103" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>123</v>
+      </c>
+      <c r="B104" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>125</v>
+      </c>
+      <c r="B105" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>123</v>
+      </c>
+      <c r="B106" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>125</v>
+      </c>
+      <c r="B107" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>123</v>
+      </c>
+      <c r="B108" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>125</v>
+      </c>
+      <c r="B109" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>123</v>
+      </c>
+      <c r="B110" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>125</v>
+      </c>
+      <c r="B111" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>123</v>
+      </c>
+      <c r="B112" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>125</v>
+      </c>
+      <c r="B113" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>123</v>
+      </c>
+      <c r="B114" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>125</v>
+      </c>
+      <c r="B115" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>123</v>
+      </c>
+      <c r="B116" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>125</v>
+      </c>
+      <c r="B117" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>123</v>
+      </c>
+      <c r="B118" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>125</v>
+      </c>
+      <c r="B121" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>123</v>
+      </c>
+      <c r="B126" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>123</v>
+      </c>
+      <c r="B128" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>125</v>
+      </c>
+      <c r="B129" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>123</v>
+      </c>
+      <c r="B130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>125</v>
+      </c>
+      <c r="B131" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>123</v>
+      </c>
+      <c r="B132" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>125</v>
+      </c>
+      <c r="B133" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>123</v>
+      </c>
+      <c r="B134" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>125</v>
+      </c>
+      <c r="B135" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>123</v>
+      </c>
+      <c r="B136" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>125</v>
+      </c>
+      <c r="B137" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>123</v>
+      </c>
+      <c r="B138" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>125</v>
+      </c>
+      <c r="B139" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>123</v>
+      </c>
+      <c r="B140" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>125</v>
+      </c>
+      <c r="B141" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>123</v>
+      </c>
+      <c r="B142" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>125</v>
+      </c>
+      <c r="B143" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>123</v>
+      </c>
+      <c r="B144" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>125</v>
+      </c>
+      <c r="B145" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>123</v>
+      </c>
+      <c r="B146" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>125</v>
+      </c>
+      <c r="B147" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>123</v>
+      </c>
+      <c r="B148" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>125</v>
+      </c>
+      <c r="B149" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>123</v>
+      </c>
+      <c r="B150" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>125</v>
+      </c>
+      <c r="B151" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>123</v>
+      </c>
+      <c r="B152" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>125</v>
+      </c>
+      <c r="B153" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>123</v>
+      </c>
+      <c r="B154" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>125</v>
+      </c>
+      <c r="B155" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>123</v>
+      </c>
+      <c r="B156" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>125</v>
+      </c>
+      <c r="B157" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>123</v>
+      </c>
+      <c r="B158" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>125</v>
+      </c>
+      <c r="B159" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>123</v>
+      </c>
+      <c r="B160" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>125</v>
+      </c>
+      <c r="B161" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>123</v>
+      </c>
+      <c r="B162" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>125</v>
+      </c>
+      <c r="B163" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>123</v>
+      </c>
+      <c r="B164" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>125</v>
+      </c>
+      <c r="B165" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>123</v>
+      </c>
+      <c r="B166" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>125</v>
+      </c>
+      <c r="B167" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>123</v>
+      </c>
+      <c r="B168" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>125</v>
+      </c>
+      <c r="B169" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>123</v>
+      </c>
+      <c r="B170" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>125</v>
+      </c>
+      <c r="B171" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>123</v>
+      </c>
+      <c r="B172" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>125</v>
+      </c>
+      <c r="B173" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>123</v>
+      </c>
+      <c r="B174" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>125</v>
+      </c>
+      <c r="B175" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>123</v>
+      </c>
+      <c r="B176" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>125</v>
+      </c>
+      <c r="B177" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>123</v>
+      </c>
+      <c r="B178" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>125</v>
+      </c>
+      <c r="B179" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>123</v>
+      </c>
+      <c r="B180" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>125</v>
+      </c>
+      <c r="B181" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>123</v>
+      </c>
+      <c r="B182" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>125</v>
+      </c>
+      <c r="B183" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>123</v>
+      </c>
+      <c r="B184" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>125</v>
+      </c>
+      <c r="B185" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>123</v>
+      </c>
+      <c r="B186" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>125</v>
+      </c>
+      <c r="B187" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>123</v>
+      </c>
+      <c r="B188" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>125</v>
+      </c>
+      <c r="B189" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>123</v>
+      </c>
+      <c r="B190" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>125</v>
+      </c>
+      <c r="B191" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>123</v>
+      </c>
+      <c r="B192" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>125</v>
+      </c>
+      <c r="B193" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>123</v>
+      </c>
+      <c r="B194" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>125</v>
+      </c>
+      <c r="B195" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>123</v>
+      </c>
+      <c r="B196" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>125</v>
+      </c>
+      <c r="B197" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>123</v>
+      </c>
+      <c r="B198" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>125</v>
+      </c>
+      <c r="B199" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>123</v>
+      </c>
+      <c r="B200" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>125</v>
+      </c>
+      <c r="B201" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>123</v>
+      </c>
+      <c r="B202" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>125</v>
+      </c>
+      <c r="B203" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>123</v>
+      </c>
+      <c r="B204" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>125</v>
+      </c>
+      <c r="B205" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>123</v>
+      </c>
+      <c r="B206" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>125</v>
+      </c>
+      <c r="B207" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>123</v>
+      </c>
+      <c r="B208" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>125</v>
+      </c>
+      <c r="B209" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>123</v>
+      </c>
+      <c r="B210" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>125</v>
+      </c>
+      <c r="B211" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>123</v>
+      </c>
+      <c r="B212" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>125</v>
+      </c>
+      <c r="B213" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>123</v>
+      </c>
+      <c r="B214" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>125</v>
+      </c>
+      <c r="B215" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>123</v>
+      </c>
+      <c r="B216" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>125</v>
+      </c>
+      <c r="B217" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>123</v>
+      </c>
+      <c r="B218" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>125</v>
+      </c>
+      <c r="B219" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>123</v>
+      </c>
+      <c r="B220" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>125</v>
+      </c>
+      <c r="B221" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>123</v>
+      </c>
+      <c r="B222" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>125</v>
+      </c>
+      <c r="B223" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>123</v>
+      </c>
+      <c r="B224" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>125</v>
+      </c>
+      <c r="B225" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>123</v>
+      </c>
+      <c r="B226" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>125</v>
+      </c>
+      <c r="B227" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>123</v>
+      </c>
+      <c r="B228" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>125</v>
+      </c>
+      <c r="B229" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>123</v>
+      </c>
+      <c r="B230" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>125</v>
+      </c>
+      <c r="B231" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>123</v>
+      </c>
+      <c r="B232" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>125</v>
+      </c>
+      <c r="B233" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>123</v>
+      </c>
+      <c r="B234" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>125</v>
+      </c>
+      <c r="B235" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>123</v>
+      </c>
+      <c r="B236" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>125</v>
+      </c>
+      <c r="B237" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>123</v>
+      </c>
+      <c r="B238" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>125</v>
+      </c>
+      <c r="B239" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>123</v>
+      </c>
+      <c r="B240" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>125</v>
+      </c>
+      <c r="B241" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>123</v>
+      </c>
+      <c r="B242" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>125</v>
+      </c>
+      <c r="B243" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>123</v>
+      </c>
+      <c r="B244" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>125</v>
+      </c>
+      <c r="B245" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>123</v>
+      </c>
+      <c r="B246" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>125</v>
+      </c>
+      <c r="B247" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>123</v>
+      </c>
+      <c r="B248" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>125</v>
+      </c>
+      <c r="B249" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>123</v>
+      </c>
+      <c r="B250" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>125</v>
+      </c>
+      <c r="B251" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>123</v>
+      </c>
+      <c r="B252" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>125</v>
+      </c>
+      <c r="B253" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>123</v>
+      </c>
+      <c r="B254" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>125</v>
+      </c>
+      <c r="B255" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>123</v>
+      </c>
+      <c r="B256" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>125</v>
+      </c>
+      <c r="B257" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>123</v>
+      </c>
+      <c r="B258" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>125</v>
+      </c>
+      <c r="B259" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>123</v>
+      </c>
+      <c r="B260" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>125</v>
+      </c>
+      <c r="B261" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>123</v>
+      </c>
+      <c r="B262" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>125</v>
+      </c>
+      <c r="B263" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>123</v>
+      </c>
+      <c r="B264" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>125</v>
+      </c>
+      <c r="B265" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>123</v>
+      </c>
+      <c r="B266" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>125</v>
+      </c>
+      <c r="B267" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>123</v>
+      </c>
+      <c r="B268" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>125</v>
+      </c>
+      <c r="B269" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>123</v>
+      </c>
+      <c r="B270" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>125</v>
+      </c>
+      <c r="B271" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>123</v>
+      </c>
+      <c r="B272" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>125</v>
+      </c>
+      <c r="B273" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>123</v>
+      </c>
+      <c r="B274" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>125</v>
+      </c>
+      <c r="B275" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>123</v>
+      </c>
+      <c r="B276" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>125</v>
+      </c>
+      <c r="B277" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>123</v>
+      </c>
+      <c r="B278" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>125</v>
+      </c>
+      <c r="B279" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>123</v>
+      </c>
+      <c r="B280" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>125</v>
+      </c>
+      <c r="B281" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>123</v>
+      </c>
+      <c r="B282" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>125</v>
+      </c>
+      <c r="B283" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>123</v>
+      </c>
+      <c r="B284" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>125</v>
+      </c>
+      <c r="B285" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>123</v>
+      </c>
+      <c r="B286" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>125</v>
+      </c>
+      <c r="B287" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>123</v>
+      </c>
+      <c r="B288" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>125</v>
+      </c>
+      <c r="B289" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>123</v>
+      </c>
+      <c r="B290" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>125</v>
+      </c>
+      <c r="B291" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>123</v>
+      </c>
+      <c r="B292" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>125</v>
+      </c>
+      <c r="B293" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>123</v>
+      </c>
+      <c r="B294" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>125</v>
+      </c>
+      <c r="B295" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>123</v>
+      </c>
+      <c r="B296" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>125</v>
+      </c>
+      <c r="B297" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>123</v>
+      </c>
+      <c r="B298" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>125</v>
+      </c>
+      <c r="B299" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>123</v>
+      </c>
+      <c r="B300" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>125</v>
+      </c>
+      <c r="B301" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>123</v>
+      </c>
+      <c r="B302" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>125</v>
+      </c>
+      <c r="B303" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>123</v>
+      </c>
+      <c r="B304" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>125</v>
+      </c>
+      <c r="B305" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>123</v>
+      </c>
+      <c r="B306" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>125</v>
+      </c>
+      <c r="B307" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>123</v>
+      </c>
+      <c r="B308" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>125</v>
+      </c>
+      <c r="B309" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>123</v>
+      </c>
+      <c r="B310" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>125</v>
+      </c>
+      <c r="B311" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>123</v>
+      </c>
+      <c r="B312" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>125</v>
+      </c>
+      <c r="B313" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>123</v>
+      </c>
+      <c r="B314" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>125</v>
+      </c>
+      <c r="B315" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>123</v>
+      </c>
+      <c r="B316" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>125</v>
+      </c>
+      <c r="B317" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>123</v>
+      </c>
+      <c r="B318" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>125</v>
+      </c>
+      <c r="B319" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>123</v>
+      </c>
+      <c r="B320" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>125</v>
+      </c>
+      <c r="B321" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>123</v>
+      </c>
+      <c r="B322" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>125</v>
+      </c>
+      <c r="B323" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>123</v>
+      </c>
+      <c r="B324" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>125</v>
+      </c>
+      <c r="B325" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>123</v>
+      </c>
+      <c r="B326" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>125</v>
+      </c>
+      <c r="B327" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>123</v>
+      </c>
+      <c r="B328" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>125</v>
+      </c>
+      <c r="B329" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>123</v>
+      </c>
+      <c r="B330" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>125</v>
+      </c>
+      <c r="B331" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>123</v>
+      </c>
+      <c r="B332" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>125</v>
+      </c>
+      <c r="B333" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>123</v>
+      </c>
+      <c r="B334" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>125</v>
+      </c>
+      <c r="B335" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>123</v>
+      </c>
+      <c r="B336" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>125</v>
+      </c>
+      <c r="B337" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>123</v>
+      </c>
+      <c r="B338" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>125</v>
+      </c>
+      <c r="B339" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>123</v>
+      </c>
+      <c r="B340" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>125</v>
+      </c>
+      <c r="B341" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>123</v>
+      </c>
+      <c r="B342" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>125</v>
+      </c>
+      <c r="B343" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>123</v>
+      </c>
+      <c r="B344" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>125</v>
+      </c>
+      <c r="B345" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>123</v>
+      </c>
+      <c r="B346" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>125</v>
+      </c>
+      <c r="B347" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>123</v>
+      </c>
+      <c r="B348" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>125</v>
+      </c>
+      <c r="B349" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>123</v>
+      </c>
+      <c r="B350" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>125</v>
+      </c>
+      <c r="B351" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>123</v>
+      </c>
+      <c r="B352" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>125</v>
+      </c>
+      <c r="B353" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>123</v>
+      </c>
+      <c r="B354" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>125</v>
+      </c>
+      <c r="B355" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>123</v>
+      </c>
+      <c r="B356" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>125</v>
+      </c>
+      <c r="B357" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>123</v>
+      </c>
+      <c r="B358" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>125</v>
+      </c>
+      <c r="B359" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>123</v>
+      </c>
+      <c r="B360" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>125</v>
+      </c>
+      <c r="B361" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>123</v>
+      </c>
+      <c r="B362" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>125</v>
+      </c>
+      <c r="B363" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>123</v>
+      </c>
+      <c r="B364" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>125</v>
+      </c>
+      <c r="B365" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>123</v>
+      </c>
+      <c r="B366" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>125</v>
+      </c>
+      <c r="B367" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>123</v>
+      </c>
+      <c r="B368" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>125</v>
+      </c>
+      <c r="B369" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>123</v>
+      </c>
+      <c r="B370" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>125</v>
+      </c>
+      <c r="B371" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>123</v>
+      </c>
+      <c r="B372" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>125</v>
+      </c>
+      <c r="B373" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>123</v>
+      </c>
+      <c r="B374" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>125</v>
+      </c>
+      <c r="B375" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>123</v>
+      </c>
+      <c r="B376" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>125</v>
+      </c>
+      <c r="B377" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>123</v>
+      </c>
+      <c r="B378" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>125</v>
+      </c>
+      <c r="B379" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>123</v>
+      </c>
+      <c r="B380" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>125</v>
+      </c>
+      <c r="B381" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>123</v>
+      </c>
+      <c r="B382" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>125</v>
+      </c>
+      <c r="B383" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>123</v>
+      </c>
+      <c r="B384" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>125</v>
+      </c>
+      <c r="B385" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>123</v>
+      </c>
+      <c r="B386" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>125</v>
+      </c>
+      <c r="B387" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>123</v>
+      </c>
+      <c r="B388" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>125</v>
+      </c>
+      <c r="B389" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>123</v>
+      </c>
+      <c r="B390" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>125</v>
+      </c>
+      <c r="B391" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>123</v>
+      </c>
+      <c r="B392" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>125</v>
+      </c>
+      <c r="B393" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>123</v>
+      </c>
+      <c r="B394" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>125</v>
+      </c>
+      <c r="B395" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>123</v>
+      </c>
+      <c r="B396" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>125</v>
+      </c>
+      <c r="B397" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>123</v>
+      </c>
+      <c r="B398" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>125</v>
+      </c>
+      <c r="B399" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>123</v>
+      </c>
+      <c r="B400" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>125</v>
+      </c>
+      <c r="B401" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>123</v>
+      </c>
+      <c r="B402" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>125</v>
+      </c>
+      <c r="B403" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>123</v>
+      </c>
+      <c r="B404" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>125</v>
+      </c>
+      <c r="B405" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>123</v>
+      </c>
+      <c r="B406" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>125</v>
+      </c>
+      <c r="B407" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>123</v>
+      </c>
+      <c r="B408" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>125</v>
+      </c>
+      <c r="B409" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>123</v>
+      </c>
+      <c r="B410" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>125</v>
+      </c>
+      <c r="B411" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>123</v>
+      </c>
+      <c r="B412" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>125</v>
+      </c>
+      <c r="B413" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>123</v>
+      </c>
+      <c r="B414" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>125</v>
+      </c>
+      <c r="B415" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>123</v>
+      </c>
+      <c r="B416" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>125</v>
+      </c>
+      <c r="B417" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>123</v>
+      </c>
+      <c r="B418" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>125</v>
+      </c>
+      <c r="B419" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>123</v>
+      </c>
+      <c r="B420" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>125</v>
+      </c>
+      <c r="B421" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>123</v>
+      </c>
+      <c r="B422" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>125</v>
+      </c>
+      <c r="B423" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>123</v>
+      </c>
+      <c r="B424" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>125</v>
+      </c>
+      <c r="B425" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>123</v>
+      </c>
+      <c r="B426" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>125</v>
+      </c>
+      <c r="B427" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>123</v>
+      </c>
+      <c r="B428" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>125</v>
+      </c>
+      <c r="B429" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>123</v>
+      </c>
+      <c r="B430" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>125</v>
+      </c>
+      <c r="B431" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5FCEFF-84DC-C148-9BBE-315A3536E4DC}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1655,7 +5237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3615AA-A36B-6840-91EE-47FFFCC5B9A1}">
   <dimension ref="A1:C28"/>
   <sheetViews>

--- a/TestFramework/src/test/resources/TestData.xlsx
+++ b/TestFramework/src/test/resources/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/premsanil/git/AMS/TestFramework/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD772114-A71D-AE4F-8D85-89834D94598D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B7EA2F-5974-F84A-AE55-BB22C13FB9E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16060" activeTab="2" xr2:uid="{05DF50FA-CBB6-C140-9382-A694CFC3DB6B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" activeTab="1" xr2:uid="{05DF50FA-CBB6-C140-9382-A694CFC3DB6B}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="137">
   <si>
     <t>UD</t>
   </si>
@@ -306,99 +306,6 @@
     <t>Generate Monthly Data</t>
   </si>
   <si>
-    <t>At One WC Chiller 1</t>
-  </si>
-  <si>
-    <t>01102022</t>
-  </si>
-  <si>
-    <t>02102022</t>
-  </si>
-  <si>
-    <t>03102022</t>
-  </si>
-  <si>
-    <t>04102022</t>
-  </si>
-  <si>
-    <t>05102022</t>
-  </si>
-  <si>
-    <t>06102022</t>
-  </si>
-  <si>
-    <t>07102022</t>
-  </si>
-  <si>
-    <t>08102022</t>
-  </si>
-  <si>
-    <t>09102022</t>
-  </si>
-  <si>
-    <t>10102022</t>
-  </si>
-  <si>
-    <t>1102022</t>
-  </si>
-  <si>
-    <t>12102022</t>
-  </si>
-  <si>
-    <t>13102022</t>
-  </si>
-  <si>
-    <t>14102022</t>
-  </si>
-  <si>
-    <t>15102022</t>
-  </si>
-  <si>
-    <t>16102022</t>
-  </si>
-  <si>
-    <t>17102022</t>
-  </si>
-  <si>
-    <t>18102022</t>
-  </si>
-  <si>
-    <t>19102022</t>
-  </si>
-  <si>
-    <t>20102022</t>
-  </si>
-  <si>
-    <t>21102022</t>
-  </si>
-  <si>
-    <t>22102022</t>
-  </si>
-  <si>
-    <t>23102022</t>
-  </si>
-  <si>
-    <t>24102022</t>
-  </si>
-  <si>
-    <t>25102022</t>
-  </si>
-  <si>
-    <t>26102022</t>
-  </si>
-  <si>
-    <t>27102022</t>
-  </si>
-  <si>
-    <t>28102022</t>
-  </si>
-  <si>
-    <t>29102022</t>
-  </si>
-  <si>
-    <t>30102022</t>
-  </si>
-  <si>
     <t>Parameter</t>
   </si>
   <si>
@@ -502,6 +409,42 @@
   </si>
   <si>
     <t>2.3</t>
+  </si>
+  <si>
+    <t>Generate Daily data</t>
+  </si>
+  <si>
+    <t>Rafeek_dv02</t>
+  </si>
+  <si>
+    <t>Rafeek_dv03</t>
+  </si>
+  <si>
+    <t>Generate Hourly data (24)</t>
+  </si>
+  <si>
+    <t>Rafeek_dne</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>11122023</t>
+  </si>
+  <si>
+    <t>12122023</t>
+  </si>
+  <si>
+    <t>Rafeek_dvc01</t>
+  </si>
+  <si>
+    <t>10122023</t>
+  </si>
+  <si>
+    <t>09122023</t>
+  </si>
+  <si>
+    <t>Generated successfully</t>
   </si>
 </sst>
 </file>
@@ -563,13 +506,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -890,7 +836,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="4" width="16.83203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1370,361 +1316,92 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABDB96C-B5E6-6345-9A62-DFA42A2DE07B}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.83203125" style="6" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="D2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="D3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="D4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>90</v>
-      </c>
-      <c r="B27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>120</v>
+        <v>135</v>
+      </c>
+      <c r="D5" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1732,11 +1409,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686088D2-F84B-9E46-9E57-2BDDD6B49202}">
   <dimension ref="A1:B431"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1" collapsed="1"/>
@@ -1744,215 +1421,215 @@
   <sheetData>
     <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B17" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B19" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B23" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B25" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B26" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B27" t="s">
         <v>46</v>
@@ -1960,23 +1637,23 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B29" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B30" t="s">
         <v>52</v>
@@ -1984,399 +1661,399 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B36" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B38" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B40" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B41" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B43" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B49" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B50" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B51" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B52" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B53" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B54" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B55" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B56" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B57" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B58" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B59" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B60" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B61" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B62" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B63" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B64" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B65" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B66" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B67" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B68" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B69" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B70" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B71" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B72" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B73" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B74" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B75" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B76" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B77" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B78" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B79" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B80" t="s">
         <v>52</v>
@@ -2384,631 +2061,631 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B81" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B82" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B83" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B85" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B87" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B88" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B89" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B96" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B98" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B99" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B100" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B101" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B102" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B103" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B104" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B105" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B106" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B107" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B108" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B109" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B110" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B111" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B112" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B113" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B114" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B115" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B116" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B117" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B118" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B119" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B120" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B121" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B122" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B123" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B124" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B125" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B126" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B127" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B128" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B129" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B130" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B131" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B132" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B133" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B134" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B135" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B136" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B137" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B138" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B139" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B140" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B141" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B142" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B143" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B144" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B145" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B146" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B147" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B148" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B149" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B150" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B151" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B152" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B153" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B154" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B155" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B156" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B157" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B158" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B159" t="s">
         <v>45</v>
@@ -3016,15 +2693,15 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B160" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B161" t="s">
         <v>45</v>
@@ -3032,647 +2709,647 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B162" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B163" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B164" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B165" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B166" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B167" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B168" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B169" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B170" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B171" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B172" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B173" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B174" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B175" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B176" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B177" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B178" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B179" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B180" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B181" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B182" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B183" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B184" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B185" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B186" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B187" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B188" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B189" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B190" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B191" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B192" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B193" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B194" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B195" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B196" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B197" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B198" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B199" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B200" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B201" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B202" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B203" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B204" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B205" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B206" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B207" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B208" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B209" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B210" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B211" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B212" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B213" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B214" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B215" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B216" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B217" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B218" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B219" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B220" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B221" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B222" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B223" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B224" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B225" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B226" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B227" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B228" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B229" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B230" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B231" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B232" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B233" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B234" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B235" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B236" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B237" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B238" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B239" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B240" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B241" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B242" t="s">
         <v>52</v>
@@ -3680,335 +3357,335 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B243" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B244" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B245" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B246" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B247" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B248" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B249" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B250" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B251" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B252" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B253" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B254" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B255" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B256" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B257" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B258" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B259" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B260" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B261" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B262" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B263" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B264" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B265" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B266" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B267" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B268" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B269" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B270" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B271" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B272" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B273" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B274" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B275" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B276" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B277" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B278" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B279" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B280" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B281" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B282" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B283" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B284" t="s">
         <v>52</v>
@@ -4016,15 +3693,15 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B285" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B286" t="s">
         <v>52</v>
@@ -4032,303 +3709,303 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B287" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B288" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B289" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B290" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B291" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B292" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B293" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B294" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B295" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B296" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B297" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B298" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B299" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B300" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B301" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B302" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B303" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B304" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B305" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B306" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B307" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B308" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B309" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B310" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B311" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B312" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B313" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B314" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B315" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B316" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B317" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B318" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B319" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B320" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B321" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B322" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B323" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B324" t="s">
         <v>53</v>
@@ -4336,151 +4013,151 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B325" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B326" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B327" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B328" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B329" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B330" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B331" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B332" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B333" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B334" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B335" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B336" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B337" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B338" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B339" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B340" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B341" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B342" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B343" t="s">
         <v>47</v>
@@ -4488,23 +4165,23 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B344" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B345" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B346" t="s">
         <v>52</v>
@@ -4512,63 +4189,63 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B347" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B348" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B349" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B350" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B351" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B352" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B353" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B354" t="s">
         <v>52</v>
@@ -4576,191 +4253,191 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B355" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B356" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B357" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B358" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B359" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B360" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B361" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B362" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B363" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B364" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B365" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B366" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B367" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B368" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B369" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B370" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B371" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B372" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B373" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B374" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B375" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B376" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B377" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B378" t="s">
         <v>52</v>
@@ -4768,63 +4445,63 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B379" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B380" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B381" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B382" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B383" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B384" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B385" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B386" t="s">
         <v>52</v>
@@ -4832,63 +4509,63 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B387" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B388" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B389" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B390" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B391" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B392" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B393" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B394" t="s">
         <v>52</v>
@@ -4896,63 +4573,63 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B395" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B396" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B397" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B398" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B399" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B400" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B401" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B402" t="s">
         <v>52</v>
@@ -4960,95 +4637,95 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B403" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B404" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B405" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B406" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B407" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B408" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B409" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B410" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B411" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B412" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B413" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B414" t="s">
         <v>52</v>
@@ -5056,31 +4733,31 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B415" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B416" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B417" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B418" t="s">
         <v>52</v>
@@ -5088,106 +4765,106 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B419" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B420" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B421" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B422" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B423" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B424" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B425" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B426" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B427" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B428" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B429" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B430" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B431" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -5203,11 +4880,11 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -5245,7 +4922,7 @@
       <selection sqref="A1:C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
